--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:20:07+00:00</t>
+    <t>2025-11-19T09:24:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:24:34+00:00</t>
+    <t>2025-11-19T09:24:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:24:21+00:00</t>
+    <t>2025-11-19T09:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:33:27+00:00</t>
+    <t>2025-11-19T09:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:46:11+00:00</t>
+    <t>2025-11-19T10:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:07:05+00:00</t>
+    <t>2025-11-19T10:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:11:08+00:00</t>
+    <t>2025-11-19T10:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:11:28+00:00</t>
+    <t>2025-11-19T16:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
+++ b/nr-test-fullscreen/ig/StructureDefinition-Emploi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:18:55+00:00</t>
+    <t>2025-11-26T08:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
